--- a/biology/Zoologie/Cerapachys/Cerapachys.xlsx
+++ b/biology/Zoologie/Cerapachys/Cerapachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerapachys est un genre de fourmis, de la sous-famille des Dorylinae. La plupart des espèces sont myrmécophages, attaquant les nids d'autres fourmis. Le genre est largement répandu dans les régions tropicales et subtropicales, la majeure partie des espèces occupant la région indo-australienne[2].
-En 2016, sur la base de la phylogénie moléculaire et d'une révision de la morphologie des différentes espèces, le genre Cerapachys a été divisé en neuf genres distincts[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerapachys est un genre de fourmis, de la sous-famille des Dorylinae. La plupart des espèces sont myrmécophages, attaquant les nids d'autres fourmis. Le genre est largement répandu dans les régions tropicales et subtropicales, la majeure partie des espèces occupant la région indo-australienne.
+En 2016, sur la base de la phylogénie moléculaire et d'une révision de la morphologie des différentes espèces, le genre Cerapachys a été divisé en neuf genres distincts.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cerapachys aberrans
